--- a/01_Hardware/SMT/BOM_IP6829_PCB_IP6829_2023-08-15.xlsx
+++ b/01_Hardware/SMT/BOM_IP6829_PCB_IP6829_2023-08-15.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A1918-B0DC-4E5D-870B-3213E8CE88A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90EDC9A-5394-4D3A-9D19-B8B8E90A5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4185" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,9 +371,6 @@
     <t>QFN-32_L5.0-W5.0-P0.50-BL-EP3.8</t>
   </si>
   <si>
-    <t>IP6826QFN32</t>
-  </si>
-  <si>
     <t>INJOINIC(英集芯)</t>
   </si>
   <si>
@@ -421,6 +418,10 @@
   </si>
   <si>
     <t>CND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP6826/IP6829</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +809,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,10 +1128,10 @@
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -1444,13 +1445,13 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>119</v>
-      </c>
-      <c r="I20" t="s">
-        <v>120</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -1458,31 +1459,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
         <v>122</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
         <v>124</v>
       </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>125</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -1490,31 +1491,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
         <v>128</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
         <v>130</v>
       </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>131</v>
-      </c>
-      <c r="I22" t="s">
-        <v>132</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
